--- a/ONCHO/Impact Assessments/Cameroon/fr_en/oct 2023/cm_oncho_pre_stop_2_202310_couverture_fr_en.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/fr_en/oct 2023/cm_oncho_pre_stop_2_202310_couverture_fr_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A1DD44-752F-4A7C-81B7-BAA8D1E58E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5060FB9B-7B97-41C0-833C-ED896F94AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -301,15 +301,6 @@
     <t>p_village_id2</t>
   </si>
   <si>
-    <t>cm_oncho_pre_stop_2_202309_couverture_fr_en_v3</t>
-  </si>
-  <si>
-    <t>(Oct 2023) ONCHO - 2.Formulaire Couverture V3 (EN - FR)</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>label::English</t>
   </si>
   <si>
@@ -407,6 +398,15 @@
   </si>
   <si>
     <t>Code Operator/Team</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_2_202310_couverture_fr_en</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>(Oct 2023) ONCHO - 2.Formulaire Couverture V4 (EN - FR)</t>
   </si>
 </sst>
 </file>
@@ -861,11 +861,11 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>16</v>
@@ -912,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>17</v>
@@ -941,7 +941,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
@@ -968,7 +968,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
@@ -1049,7 +1049,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
@@ -1078,7 +1078,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17" t="s">
@@ -1107,10 +1107,10 @@
         <v>87</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>85</v>
@@ -1140,7 +1140,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17" t="s">
@@ -1167,7 +1167,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17" t="s">
@@ -1194,7 +1194,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17" t="s">
@@ -1221,7 +1221,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17" t="s">
@@ -1252,7 +1252,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
@@ -1279,7 +1279,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="s">
@@ -1306,7 +1306,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="s">
@@ -1318,7 +1318,7 @@
         <v>63</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>64</v>
@@ -1339,7 +1339,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
@@ -1364,7 +1364,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22" t="s">
@@ -1389,10 +1389,10 @@
         <v>52</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>35</v>
@@ -1420,10 +1420,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>37</v>
@@ -1436,7 +1436,7 @@
         <v>67</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>68</v>
@@ -1457,7 +1457,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17" t="s">
@@ -1486,7 +1486,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
@@ -1572,7 +1572,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>11</v>
@@ -1621,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>58</v>
@@ -1649,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>59</v>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>60</v>
@@ -1677,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>61</v>
@@ -1691,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>62</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
